--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -559,20 +559,28 @@
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v/>
-      </c>
-      <c r="F2" t="n">
-        <v/>
-      </c>
-      <c r="G2" t="n">
-        <v/>
-      </c>
-      <c r="H2" t="n">
-        <v/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>đường thị út</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="J2" t="n">
         <v/>
@@ -581,37 +589,41 @@
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v/>
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v/>
       </c>
       <c r="O2" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
-        <v/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T2" t="n">
         <v/>
       </c>
       <c r="U2" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V2" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -716,25 +728,25 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>8000000</v>
+        <v>14000000</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8000000</v>
+        <v>14000000</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="R4" t="n">
         <v>2000000</v>
@@ -742,7 +754,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -759,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +807,11 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Lượng thu</t>
         </is>
       </c>
@@ -811,7 +828,8 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -826,7 +844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,17 +915,101 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>752</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
       <c r="F3" t="n">
         <v>180000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>753</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>754</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1560000</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +1023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1090,7 +1192,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8000000</v>
+        <v>14000000</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1120,7 +1222,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1130,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1148,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1182,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1216,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5000000</v>
+        <v>88000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1250,40 +1352,74 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5386000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5386000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100000</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="B11" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>167586000</v>
       </c>
     </row>
@@ -1298,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1325,27 +1461,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>180000</v>
+      <c r="B6" t="n">
+        <v>1560000</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,10 +1567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8000000</v>
+        <v>14000000</v>
       </c>
       <c r="C2" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -1426,32 +1582,57 @@
         <v>180000</v>
       </c>
       <c r="G2" t="n">
-        <v>5820000</v>
+        <v>11820000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1380000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1380000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B4" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>180000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5820000</v>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1560000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10440000</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1773,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="9">
@@ -1622,7 +1803,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>160714.2857142857</v>
+        <v>53571.42857142857</v>
       </c>
     </row>
     <row r="11">
@@ -1727,7 +1908,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>600000</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="18">
@@ -1742,7 +1923,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="19">
@@ -1798,7 +1979,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>2984523.809523809</v>
+        <v>4307380.952380951</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,69 +2004,103 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Doanh thu</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Tổng đơn giá</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ thanh toán</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Thu nợ</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tổng doanh thu</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Chi tiêu</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Quỹ lương</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Tổng chi phí</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Lợi nhuận</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Tỉ lệ lợi nhuận</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>6000000</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="C2" t="n">
         <v>6000000</v>
       </c>
       <c r="D2" t="n">
-        <v>180000</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E2" t="n">
-        <v>2984523.809523809</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="F2" t="n">
-        <v>3164523.809523809</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2835476.190476191</v>
+        <v>6000000</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4725793650793652</v>
+        <v>780000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4307380.952380951</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5087380.952380951</v>
+      </c>
+      <c r="K2" t="n">
+        <v>912619.0476190485</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1521031746031747</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,51 +713,561 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>625</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ chăm</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>626</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nhấn đồng tiền</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ trinh</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>627</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tạ duy hoàng </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>628</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nguyễn thị lệ trang</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>636</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cấy mỡ mặt </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>thạch thị siêu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>637</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>thạch thị siêu</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V9" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>150000</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>107000000</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>113000000</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>85000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>85000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>400000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +1281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,18 +1329,183 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>176</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-428</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>177</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-611</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>178</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-356</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>179</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-500</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>180</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-500</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>0</v>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>12500000</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +1519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,6 +1558,11 @@
           <t>Lượng chi</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -911,6 +1591,9 @@
       <c r="F2" t="n">
         <v>180000</v>
       </c>
+      <c r="G2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -939,6 +1622,9 @@
       <c r="F3" t="n">
         <v>180000</v>
       </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -967,6 +1653,9 @@
       <c r="F4" t="n">
         <v>500000</v>
       </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -995,22 +1684,276 @@
       <c r="F5" t="n">
         <v>700000</v>
       </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>755</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>940000</v>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>756</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>761</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>766</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>767</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>800000</v>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>770</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>771</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>772</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>10400000</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>triết khấu tiền phần trăm khách và khách tn</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>1560000</v>
-      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1023,7 +1966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,7 +2029,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1102,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1114,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1130,41 +2073,41 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>22200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1182,20 +2125,20 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1216,23 +2159,23 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>34000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1256,7 +2199,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1266,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17000000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1284,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1294,7 +2237,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>76000000</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1318,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="9">
@@ -1340,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1352,75 +2295,41 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107000000</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5386000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>150000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>167586000</v>
+        <v>12500000</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +2343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1457,51 +2366,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360000</v>
+        <v>11600000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500000</v>
+        <v>2200000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1560000</v>
+      <c r="B7" t="n">
+        <v>21500000</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +2434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1613,26 +2532,151 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>940000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22560000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1200000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>76000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16900000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35100000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1560000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10440000</v>
+      <c r="B9" t="n">
+        <v>113000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>85000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>76000000</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +2757,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>214285.7142857143</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="5">
@@ -1773,7 +2817,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>600000</v>
+        <v>2557142.857142857</v>
       </c>
     </row>
     <row r="9">
@@ -1788,7 +2832,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>838095.2380952381</v>
+        <v>2752380.952380952</v>
       </c>
     </row>
     <row r="10">
@@ -1803,7 +2847,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>53571.42857142857</v>
+        <v>1628571.428571429</v>
       </c>
     </row>
     <row r="11">
@@ -1818,7 +2862,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1071428.571428571</v>
+        <v>4285714.285714285</v>
       </c>
     </row>
     <row r="12">
@@ -1908,7 +2952,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1380000</v>
+        <v>5571428.571428571</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +2967,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>150000</v>
+        <v>1472857.142857143</v>
       </c>
     </row>
     <row r="19">
@@ -1938,7 +2982,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1117142.857142857</v>
       </c>
     </row>
     <row r="20">
@@ -1953,7 +2997,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="21">
@@ -1968,7 +3012,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>852857.1428571428</v>
       </c>
     </row>
     <row r="22">
@@ -1979,7 +3023,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>4307380.952380951</v>
+        <v>22395238.09523809</v>
       </c>
     </row>
   </sheetData>
@@ -2070,37 +3114,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7000000</v>
+        <v>113000000</v>
       </c>
       <c r="C2" t="n">
-        <v>6000000</v>
+        <v>85000000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2477876106194691</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>12500000</v>
       </c>
       <c r="G2" t="n">
-        <v>6000000</v>
+        <v>97500000</v>
       </c>
       <c r="H2" t="n">
-        <v>780000</v>
+        <v>21500000</v>
       </c>
       <c r="I2" t="n">
-        <v>4307380.952380951</v>
+        <v>22395238.09523809</v>
       </c>
       <c r="J2" t="n">
-        <v>5087380.952380951</v>
+        <v>43895238.09523809</v>
       </c>
       <c r="K2" t="n">
-        <v>912619.0476190485</v>
+        <v>53604761.90476191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1521031746031747</v>
+        <v>0.5497924297924298</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-02-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1109,8 +1109,10 @@
       <c r="L8" t="n">
         <v>36000000</v>
       </c>
-      <c r="M8" t="n">
-        <v/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
       </c>
       <c r="N8" t="n">
         <v/>
@@ -1127,8 +1129,10 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
-      <c r="S8" t="n">
-        <v/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T8" t="n">
         <v/>
@@ -1519,7 +1523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,19 +1945,238 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>775</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>776</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>777</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>778</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>783</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="G18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>784</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>380000</v>
+      </c>
+      <c r="G19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>785</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>chiết khấu trả nợ khách Nhân</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>40280000</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1966,7 +2189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2029,7 +2252,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2039,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>36000000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2057,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2079,47 +2302,47 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2131,17 +2354,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="C5" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2165,14 +2388,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24000000</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2199,17 +2422,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>17000000</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2233,17 +2456,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76000000</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>17000000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2261,17 +2484,17 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>76000000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2283,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2295,40 +2518,74 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>107000000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>6000000</v>
       </c>
-      <c r="D10" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="D11" t="n">
+        <v>71000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
         <v>250000</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>12500000</v>
       </c>
     </row>
@@ -2343,7 +2600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2370,7 +2627,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11600000</v>
+        <v>22200000</v>
       </c>
     </row>
     <row r="3">
@@ -2380,7 +2637,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2200000</v>
+        <v>3080000</v>
       </c>
     </row>
     <row r="4">
@@ -2390,37 +2647,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7000000</v>
+        <v>8300000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>21500000</v>
+      <c r="B9" t="n">
+        <v>40280000</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2486,13 +2763,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14000000</v>
+        <v>8000000</v>
       </c>
       <c r="C2" t="n">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2501,7 +2778,7 @@
         <v>180000</v>
       </c>
       <c r="G2" t="n">
-        <v>11820000</v>
+        <v>5820000</v>
       </c>
     </row>
     <row r="3">
@@ -2511,13 +2788,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2526,7 +2803,7 @@
         <v>1380000</v>
       </c>
       <c r="G3" t="n">
-        <v>-1380000</v>
+        <v>4620000</v>
       </c>
     </row>
     <row r="4">
@@ -2573,10 +2850,10 @@
         <v>8000000</v>
       </c>
       <c r="F5" t="n">
-        <v>500000</v>
+        <v>2100000</v>
       </c>
       <c r="G5" t="n">
-        <v>7500000</v>
+        <v>5900000</v>
       </c>
     </row>
     <row r="6">
@@ -2657,26 +2934,76 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15500000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-15500000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1680000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1680000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B11" t="n">
         <v>113000000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C11" t="n">
         <v>85000000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E11" t="n">
         <v>12500000</v>
       </c>
-      <c r="F9" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>76000000</v>
+      <c r="F11" t="n">
+        <v>40280000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>57220000</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +3159,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2752380.952380952</v>
+        <v>3109523.80952381</v>
       </c>
     </row>
     <row r="10">
@@ -2847,7 +3174,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1628571.428571429</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="11">
@@ -2862,7 +3189,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4285714.285714285</v>
+        <v>5892857.142857143</v>
       </c>
     </row>
     <row r="12">
@@ -2982,7 +3309,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1117142.857142857</v>
+        <v>-3882857.142857143</v>
       </c>
     </row>
     <row r="20">
@@ -3023,7 +3350,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>22395238.09523809</v>
+        <v>19680952.38095238</v>
       </c>
     </row>
   </sheetData>
@@ -3132,19 +3459,19 @@
         <v>97500000</v>
       </c>
       <c r="H2" t="n">
-        <v>21500000</v>
+        <v>40280000</v>
       </c>
       <c r="I2" t="n">
-        <v>22395238.09523809</v>
+        <v>19680952.38095238</v>
       </c>
       <c r="J2" t="n">
-        <v>43895238.09523809</v>
+        <v>59960952.38095238</v>
       </c>
       <c r="K2" t="n">
-        <v>53604761.90476191</v>
+        <v>37539047.61904762</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5497924297924298</v>
+        <v>0.385015873015873</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1227,51 +1227,731 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>646</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>đố thị ngọc thuý</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>652</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>653</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>654</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ngọc khanh</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>655</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>trương thị vẹn</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>656</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mẹ khanh </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>657</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>truương thị luyến</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>673</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>thạch thị siêu</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>107000000</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>113000000</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>85000000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>85000000</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>151700000</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>159200000</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>127200000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>131200000</v>
+      </c>
+      <c r="R18" t="n">
         <v>28000000</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
-        <v>400000</v>
-      </c>
-      <c r="V10" t="n">
-        <v>50000</v>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>700000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1436,7 +2116,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1459,7 +2139,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v/>
+        <v>2000000</v>
       </c>
     </row>
     <row r="6">
@@ -1469,11 +2149,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08-09-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1483,33 +2163,66 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HD-LUXURY-500</t>
+          <t>HD-LUXURY-414</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>192</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-646</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>12500000</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>17000000</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +2236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,19 +2877,513 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>786</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="G21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>788</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>789</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>790</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="G24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>791</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>792</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v/>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+      <c r="G26" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>799</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G27" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>801</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>809</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>810</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>811</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>580000</v>
+      </c>
+      <c r="G31" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>812</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>750000</v>
+      </c>
+      <c r="G32" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>831</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>845000</v>
+      </c>
+      <c r="G33" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>832</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G34" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>840</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>750000</v>
+      </c>
+      <c r="G35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>841</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>40280000</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>56195000</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2189,7 +3396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2252,7 +3459,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bác Sĩ Thảo</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2262,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36000000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2286,7 +3493,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2296,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36000000</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2314,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2336,47 +3543,47 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2388,17 +3595,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>45000000</v>
       </c>
       <c r="C6" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>29000000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2416,20 +3623,20 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24000000</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2456,17 +3663,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="D8" t="n">
-        <v>17000000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2490,17 +3697,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76000000</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>26200000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2518,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2534,16 +3741,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>22000000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2558,35 +3765,137 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>76000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6700000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>107000000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>71000000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>250000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12500000</v>
+      <c r="B14" t="n">
+        <v>151700000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>113200000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>450000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17000000</v>
       </c>
     </row>
   </sheetData>
@@ -2600,7 +3909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,77 +3936,87 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22200000</v>
+        <v>23700000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3080000</v>
+        <v>2230000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8300000</v>
+        <v>3940000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1000000</v>
+        <v>9330000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5000000</v>
+        <v>1545000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>14450000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>40280000</v>
+      <c r="B10" t="n">
+        <v>56195000</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +4030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2984,26 +4303,151 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5520000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1480000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>230000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-230000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>33700000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33700000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7330000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>26870000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1845000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2155000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>990000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>113000000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>85000000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>12500000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>40280000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>57220000</v>
+      <c r="B16" t="n">
+        <v>159200000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>127200000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>56195000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>88005000</v>
       </c>
     </row>
   </sheetData>
@@ -3084,7 +4528,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>857142.8571428573</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="5">
@@ -3144,7 +4588,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2557142.857142857</v>
+        <v>3477142.857142857</v>
       </c>
     </row>
     <row r="9">
@@ -3159,7 +4603,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3109523.80952381</v>
+        <v>9919047.619047619</v>
       </c>
     </row>
     <row r="10">
@@ -3174,7 +4618,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1950000</v>
+        <v>4789285.714285715</v>
       </c>
     </row>
     <row r="11">
@@ -3189,7 +4633,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5892857.142857143</v>
+        <v>11785714.28571429</v>
       </c>
     </row>
     <row r="12">
@@ -3279,7 +4723,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5571428.571428571</v>
+        <v>5987142.857142857</v>
       </c>
     </row>
     <row r="18">
@@ -3294,7 +4738,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1472857.142857143</v>
+        <v>-151428.5714285718</v>
       </c>
     </row>
     <row r="19">
@@ -3309,7 +4753,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-3882857.142857143</v>
+        <v>-3721428.571428571</v>
       </c>
     </row>
     <row r="20">
@@ -3324,7 +4768,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1300000</v>
+        <v>2014285.714285714</v>
       </c>
     </row>
     <row r="21">
@@ -3339,7 +4783,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>852857.1428571428</v>
+        <v>1279285.714285714</v>
       </c>
     </row>
     <row r="22">
@@ -3350,7 +4794,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>19680952.38095238</v>
+        <v>37736190.47619048</v>
       </c>
     </row>
   </sheetData>
@@ -3441,37 +4885,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113000000</v>
+        <v>159200000</v>
       </c>
       <c r="C2" t="n">
-        <v>85000000</v>
+        <v>131200000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7522123893805309</v>
+        <v>0.8241206030150754</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2477876106194691</v>
+        <v>0.1758793969849246</v>
       </c>
       <c r="F2" t="n">
-        <v>12500000</v>
+        <v>13000000</v>
       </c>
       <c r="G2" t="n">
-        <v>97500000</v>
+        <v>144200000</v>
       </c>
       <c r="H2" t="n">
-        <v>40280000</v>
+        <v>56195000</v>
       </c>
       <c r="I2" t="n">
-        <v>19680952.38095238</v>
+        <v>37736190.47619048</v>
       </c>
       <c r="J2" t="n">
-        <v>59960952.38095238</v>
+        <v>93931190.47619048</v>
       </c>
       <c r="K2" t="n">
-        <v>37539047.61904762</v>
+        <v>50268809.52380952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.385015873015873</v>
+        <v>0.3486047817185126</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="J11" t="n">
         <v/>
@@ -1361,7 +1361,7 @@
         <v/>
       </c>
       <c r="L11" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1372,13 +1372,13 @@
         <v/>
       </c>
       <c r="O11" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1871,10 +1871,8 @@
       <c r="L17" t="n">
         <v>1500000</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="M17" t="n">
+        <v/>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1907,50 +1905,472 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>674</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>sơn thị chành thi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="I18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v/>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>677</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+      <c r="U19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>678</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v/>
+      </c>
+      <c r="L20" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v/>
+      </c>
+      <c r="N20" t="n">
+        <v/>
+      </c>
+      <c r="O20" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v/>
+      </c>
+      <c r="T20" t="n">
+        <v/>
+      </c>
+      <c r="U20" t="n">
+        <v/>
+      </c>
+      <c r="V20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>679</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>lý thị thuý vi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v/>
+      </c>
+      <c r="L21" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v/>
+      </c>
+      <c r="O21" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v/>
+      </c>
+      <c r="U21" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>680</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">triệu tú kiều </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="J22" t="n">
+        <v/>
+      </c>
+      <c r="K22" t="n">
+        <v/>
+      </c>
+      <c r="L22" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v/>
+      </c>
+      <c r="O22" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v/>
+      </c>
+      <c r="U22" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>151700000</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>181700000</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
         <v>7500000</v>
       </c>
-      <c r="L18" t="n">
-        <v>159200000</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>127200000</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="L23" t="n">
+        <v>189200000</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>157200000</v>
+      </c>
+      <c r="P23" t="n">
         <v>4000000</v>
       </c>
-      <c r="Q18" t="n">
-        <v>131200000</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="Q23" t="n">
+        <v>161200000</v>
+      </c>
+      <c r="R23" t="n">
         <v>28000000</v>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>700000</v>
-      </c>
-      <c r="V18" t="n">
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>850000</v>
+      </c>
+      <c r="V23" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -2236,7 +2656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,19 +3791,174 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>845</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="G37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>846</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="G38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>847</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>210000</v>
+      </c>
+      <c r="G39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>848</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>849</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>35</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>56195000</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>69005000</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3571,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -3599,13 +4174,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45000000</v>
+        <v>41000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>29000000</v>
+        <v>46000000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3667,7 +4242,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24000000</v>
+        <v>54000000</v>
       </c>
       <c r="C8" t="n">
         <v>1500000</v>
@@ -3707,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>26200000</v>
+        <v>38200000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3741,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3849,10 +4424,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -3871,22 +4446,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151700000</v>
+        <v>177700000</v>
       </c>
       <c r="C14" t="n">
         <v>7500000</v>
       </c>
       <c r="D14" t="n">
-        <v>113200000</v>
+        <v>142200000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>450000</v>
+        <v>600000</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -3936,7 +4511,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23700000</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="3">
@@ -3966,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9330000</v>
+        <v>10630000</v>
       </c>
     </row>
     <row r="6">
@@ -3986,7 +4561,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1545000</v>
+        <v>1755000</v>
       </c>
     </row>
     <row r="8">
@@ -3996,7 +4571,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14450000</v>
+        <v>24450000</v>
       </c>
     </row>
     <row r="9">
@@ -4016,7 +4591,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56195000</v>
+        <v>69005000</v>
       </c>
     </row>
   </sheetData>
@@ -4030,7 +4605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4207,13 +4782,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4222,7 +4797,7 @@
         <v>1200000</v>
       </c>
       <c r="G7" t="n">
-        <v>-1200000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="8">
@@ -4357,10 +4932,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33700000</v>
+        <v>29700000</v>
       </c>
       <c r="C13" t="n">
-        <v>33700000</v>
+        <v>29700000</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -4372,7 +4947,7 @@
         <v>7330000</v>
       </c>
       <c r="G13" t="n">
-        <v>26870000</v>
+        <v>22870000</v>
       </c>
     </row>
     <row r="14">
@@ -4428,26 +5003,51 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12810000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17190000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>159200000</v>
-      </c>
-      <c r="C16" t="n">
-        <v>127200000</v>
-      </c>
-      <c r="D16" t="n">
-        <v>16</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="B17" t="n">
+        <v>189200000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>157200000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21</v>
+      </c>
+      <c r="E17" t="n">
         <v>17000000</v>
       </c>
-      <c r="F16" t="n">
-        <v>56195000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>88005000</v>
+      <c r="F17" t="n">
+        <v>69005000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>105195000</v>
       </c>
     </row>
   </sheetData>
@@ -4588,7 +5188,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3477142.857142857</v>
+        <v>4677142.857142857</v>
       </c>
     </row>
     <row r="9">
@@ -4603,7 +5203,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9919047.619047619</v>
+        <v>11219047.61904762</v>
       </c>
     </row>
     <row r="10">
@@ -4618,7 +5218,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4789285.714285715</v>
+        <v>4389285.714285715</v>
       </c>
     </row>
     <row r="11">
@@ -4723,7 +5323,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5987142.857142857</v>
+        <v>-2857.142857141793</v>
       </c>
     </row>
     <row r="18">
@@ -4738,7 +5338,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-151428.5714285718</v>
+        <v>348571.4285714282</v>
       </c>
     </row>
     <row r="19">
@@ -4753,7 +5353,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-3721428.571428571</v>
+        <v>-3671428.571428571</v>
       </c>
     </row>
     <row r="20">
@@ -4794,7 +5394,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>37736190.47619048</v>
+        <v>34396190.47619048</v>
       </c>
     </row>
   </sheetData>
@@ -4885,37 +5485,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159200000</v>
+        <v>189200000</v>
       </c>
       <c r="C2" t="n">
-        <v>131200000</v>
+        <v>161200000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8241206030150754</v>
+        <v>0.8520084566596194</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1758793969849246</v>
+        <v>0.1479915433403806</v>
       </c>
       <c r="F2" t="n">
         <v>13000000</v>
       </c>
       <c r="G2" t="n">
-        <v>144200000</v>
+        <v>174200000</v>
       </c>
       <c r="H2" t="n">
-        <v>56195000</v>
+        <v>69005000</v>
       </c>
       <c r="I2" t="n">
-        <v>37736190.47619048</v>
+        <v>34396190.47619048</v>
       </c>
       <c r="J2" t="n">
-        <v>93931190.47619048</v>
+        <v>103401190.4761905</v>
       </c>
       <c r="K2" t="n">
-        <v>50268809.52380952</v>
+        <v>70798809.52380952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3486047817185126</v>
+        <v>0.4064225575419605</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="5">
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11219047.61904762</v>
+        <v>11695238.0952381</v>
       </c>
     </row>
     <row r="10">
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4389285.714285715</v>
+        <v>4710714.285714285</v>
       </c>
     </row>
     <row r="11">
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11785714.28571429</v>
+        <v>13928571.42857143</v>
       </c>
     </row>
     <row r="12">
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2857.142857141793</v>
+        <v>4630714.285714285</v>
       </c>
     </row>
     <row r="18">
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>348571.4285714282</v>
+        <v>2894285.714285715</v>
       </c>
     </row>
     <row r="19">
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-3671428.571428571</v>
+        <v>-1537142.857142857</v>
       </c>
     </row>
     <row r="20">
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2014285.714285714</v>
+        <v>4514285.714285715</v>
       </c>
     </row>
     <row r="21">
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1279285.714285714</v>
+        <v>2913928.571428571</v>
       </c>
     </row>
     <row r="22">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>34396190.47619048</v>
+        <v>51213452.38095239</v>
       </c>
     </row>
   </sheetData>
@@ -5506,16 +5506,16 @@
         <v>69005000</v>
       </c>
       <c r="I2" t="n">
-        <v>34396190.47619048</v>
+        <v>51213452.38095239</v>
       </c>
       <c r="J2" t="n">
-        <v>103401190.4761905</v>
+        <v>120218452.3809524</v>
       </c>
       <c r="K2" t="n">
-        <v>70798809.52380952</v>
+        <v>53981547.61904761</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4064225575419605</v>
+        <v>0.3098825925318462</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -5061,7 +5061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5149,12 +5149,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NV-39</t>
+          <t>NV-42</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+          <t>Cô Na giúp việc</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -5164,87 +5164,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NV-42</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cô Na giúp việc</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5248571.428571429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NV-5</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4677142.857142857</v>
+        <v>11695238.0952381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11695238.0952381</v>
+        <v>5032142.857142857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4710714.285714285</v>
+        <v>13928571.42857143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13928571.42857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-22</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -5254,12 +5254,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -5269,12 +5269,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -5284,12 +5284,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -5299,102 +5299,87 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4630714.285714285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-10</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4630714.285714285</v>
+        <v>2894285.714285715</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2894285.714285715</v>
+        <v>-1537142.857142857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1537142.857142857</v>
+        <v>4514285.714285715</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-38</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Lê Thị Ngọc Mi</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4514285.714285715</v>
+        <v>2913928.571428571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NV-38</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Lê Thị Ngọc Mi</t>
-        </is>
-      </c>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>2913928.571428571</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>51213452.38095239</v>
+        <v>52106309.52380954</v>
       </c>
     </row>
   </sheetData>
@@ -5506,16 +5491,16 @@
         <v>69005000</v>
       </c>
       <c r="I2" t="n">
-        <v>51213452.38095239</v>
+        <v>52106309.52380954</v>
       </c>
       <c r="J2" t="n">
-        <v>120218452.3809524</v>
+        <v>121111309.5238095</v>
       </c>
       <c r="K2" t="n">
-        <v>53981547.61904761</v>
+        <v>53088690.47619046</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3098825925318462</v>
+        <v>0.3047571209884642</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,51 +2327,137 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>696</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>nguyễn thanh tuyền</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v/>
+      </c>
+      <c r="K23" t="n">
+        <v/>
+      </c>
+      <c r="L23" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v/>
+      </c>
+      <c r="O23" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v/>
+      </c>
+      <c r="U23" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V23" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>21</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="n">
-        <v>181700000</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>196700000</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
         <v>7500000</v>
       </c>
-      <c r="L23" t="n">
-        <v>189200000</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>157200000</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="L24" t="n">
+        <v>204200000</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>172200000</v>
+      </c>
+      <c r="P24" t="n">
         <v>4000000</v>
       </c>
-      <c r="Q23" t="n">
-        <v>161200000</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="Q24" t="n">
+        <v>176200000</v>
+      </c>
+      <c r="R24" t="n">
         <v>28000000</v>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="n">
-        <v>850000</v>
-      </c>
-      <c r="V23" t="n">
-        <v>100000</v>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>950000</v>
+      </c>
+      <c r="V24" t="n">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3363,11 +3449,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3377,11 +3463,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>600000</v>
+        <v>30000</v>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -3394,11 +3480,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3408,11 +3494,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1100000</v>
+        <v>200000</v>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -3425,11 +3511,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3439,11 +3525,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1750000</v>
+        <v>1000000</v>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -3456,11 +3542,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3468,11 +3554,13 @@
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v/>
+        <v>5000000</v>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -3485,11 +3573,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3499,11 +3587,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>30000</v>
+        <v>580000</v>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -3516,11 +3604,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3530,11 +3618,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200000</v>
+        <v>750000</v>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -3547,11 +3635,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3561,11 +3649,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1000000</v>
+        <v>845000</v>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -3578,11 +3666,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3596,7 +3684,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -3609,11 +3697,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811</v>
+        <v>840</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3623,11 +3711,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>580000</v>
+        <v>750000</v>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -3640,11 +3728,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>812</v>
+        <v>841</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3654,11 +3742,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>750000</v>
+        <v>240000</v>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -3671,11 +3759,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3685,11 +3773,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>845000</v>
+        <v>10000000</v>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -3702,11 +3790,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3716,11 +3804,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -3733,11 +3821,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3747,11 +3835,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>750000</v>
+        <v>210000</v>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -3764,11 +3852,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3778,11 +3866,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -3795,7 +3883,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -3809,11 +3897,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -3826,11 +3914,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>846</v>
+        <v>867</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-28-2024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3840,11 +3928,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Tiền Thuế</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1300000</v>
+        <v>1400000</v>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -3857,11 +3945,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-28-2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3871,11 +3959,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -3888,11 +3976,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>848</v>
+        <v>869</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-28-2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3902,11 +3990,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -3915,50 +4003,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>849</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>08-24-2024</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Chi Phí CTV</t>
-        </is>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G41" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>40</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>69005000</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>67695000</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4152,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -4242,7 +4299,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54000000</v>
+        <v>69000000</v>
       </c>
       <c r="C8" t="n">
         <v>1500000</v>
@@ -4316,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18000000</v>
+        <v>33000000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -4446,22 +4503,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177700000</v>
+        <v>192700000</v>
       </c>
       <c r="C14" t="n">
         <v>7500000</v>
       </c>
       <c r="D14" t="n">
-        <v>142200000</v>
+        <v>157200000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>600000</v>
+        <v>700000</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -4484,7 +4541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4531,7 +4588,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3940000</v>
+        <v>4080000</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4598,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10630000</v>
+        <v>11230000</v>
       </c>
     </row>
     <row r="6">
@@ -4557,41 +4614,51 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Tiền Thuế</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1755000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24450000</v>
+        <v>1755000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>69005000</v>
+      <c r="B11" t="n">
+        <v>67695000</v>
       </c>
     </row>
   </sheetData>
@@ -4605,7 +4672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4894,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5520000</v>
+        <v>2070000</v>
       </c>
       <c r="G11" t="n">
-        <v>1480000</v>
+        <v>4930000</v>
       </c>
     </row>
     <row r="12">
@@ -5028,26 +5095,51 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12860000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>189200000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>157200000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>21</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="B18" t="n">
+        <v>204200000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>172200000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>22</v>
+      </c>
+      <c r="E18" t="n">
         <v>17000000</v>
       </c>
-      <c r="F17" t="n">
-        <v>69005000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>105195000</v>
+      <c r="F18" t="n">
+        <v>67695000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>121505000</v>
       </c>
     </row>
   </sheetData>
@@ -5061,7 +5153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5085,6 +5177,16 @@
           <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tổng lương thực nhận tại SÓC TRĂNG</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5100,6 +5202,12 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5115,6 +5223,12 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5130,6 +5244,12 @@
       <c r="C4" t="n">
         <v>2785714.285714286</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2785714.285714286</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5145,241 +5265,364 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NV-42</t>
+          <t>NV-39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cô Na giúp việc</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NV-5</t>
+          <t>NV-42</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Cô Na giúp việc</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5248571.428571429</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11695238.0952381</v>
+        <v>5248571.428571429</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5248571.428571429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5032142.857142857</v>
+        <v>11695238.0952381</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11695238.0952381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13928571.42857143</v>
+        <v>6853571.428571429</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6853571.428571429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-22</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>13928571.42857143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13928571.42857143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-10</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4630714.285714285</v>
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2894285.714285715</v>
+        <v>17943571.42857143</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7943571.428571429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1537142.857142857</v>
+        <v>6438571.428571428</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5438571.428571428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4514285.714285715</v>
+        <v>4596428.571428572</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-403571.4285714282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV-38</t>
+          <t>NV-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lê Thị Ngọc Mi</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2913928.571428571</v>
+        <v>4871428.571428572</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4871428.571428572</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>NV-38</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>52106309.52380954</v>
+        <v>3340357.142857143</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3340357.142857143</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>77702023.80952382</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>61702023.80952382</v>
       </c>
     </row>
   </sheetData>
@@ -5470,37 +5713,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189200000</v>
+        <v>204200000</v>
       </c>
       <c r="C2" t="n">
-        <v>161200000</v>
+        <v>176200000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8520084566596194</v>
+        <v>0.8628795298726738</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1479915433403806</v>
+        <v>0.1371204701273262</v>
       </c>
       <c r="F2" t="n">
         <v>13000000</v>
       </c>
       <c r="G2" t="n">
-        <v>174200000</v>
+        <v>189200000</v>
       </c>
       <c r="H2" t="n">
-        <v>69005000</v>
+        <v>67695000</v>
       </c>
       <c r="I2" t="n">
-        <v>52106309.52380954</v>
+        <v>77702023.80952382</v>
       </c>
       <c r="J2" t="n">
-        <v>121111309.5238095</v>
+        <v>145397023.8095238</v>
       </c>
       <c r="K2" t="n">
-        <v>53088690.47619046</v>
+        <v>43802976.19047618</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3047571209884642</v>
+        <v>0.2315167874760898</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -1871,8 +1871,10 @@
       <c r="L17" t="n">
         <v>1500000</v>
       </c>
-      <c r="M17" t="n">
-        <v/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -2471,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2515,6 +2517,61 @@
           <t>Lượng thu</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2548,6 +2605,49 @@
       <c r="G2" t="n">
         <v>500000</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Lâm t.dân</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Cô Siêng giúp Việc</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2581,6 +2681,51 @@
       <c r="G3" t="n">
         <v>8000000</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ngọc hân</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2614,6 +2759,49 @@
       <c r="G4" t="n">
         <v>2000000</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>thuý vân</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2647,6 +2835,49 @@
       <c r="G5" t="n">
         <v>2000000</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>pola</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2680,6 +2911,49 @@
       <c r="G6" t="n">
         <v>500000</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">em Tuyền </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2712,6 +2986,49 @@
       </c>
       <c r="G7" t="n">
         <v>4000000</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>đố thị ngọc thuý</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -2730,6 +3047,25 @@
       <c r="G8" t="n">
         <v>17000000</v>
       </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>136500000</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>86000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>115000000</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2742,7 +3078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4003,19 +4339,112 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>873</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>879</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="G42" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>880</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>5383000</v>
+      </c>
+      <c r="G43" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>39</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>67695000</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>78278000</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4104,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4512,7 +4941,7 @@
         <v>157200000</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -4598,7 +5027,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11230000</v>
+        <v>16613000</v>
       </c>
     </row>
     <row r="6">
@@ -4628,7 +5057,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1755000</v>
+        <v>5955000</v>
       </c>
     </row>
     <row r="9">
@@ -4638,7 +5067,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="10">
@@ -4658,7 +5087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67695000</v>
+        <v>78278000</v>
       </c>
     </row>
   </sheetData>
@@ -4672,7 +5101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5120,26 +5549,76 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9583000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-9583000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B20" t="n">
         <v>204200000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C20" t="n">
         <v>172200000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D20" t="n">
         <v>22</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E20" t="n">
         <v>17000000</v>
       </c>
-      <c r="F18" t="n">
-        <v>67695000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>121505000</v>
+      <c r="F20" t="n">
+        <v>78278000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>110922000</v>
       </c>
     </row>
   </sheetData>
@@ -5153,7 +5632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5212,75 +5691,75 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NV-29</t>
+          <t>NV-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3683571.428571429</v>
       </c>
       <c r="D3" t="n">
         <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3683571.428571429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NV-33</t>
+          <t>NV-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pen Design </t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2785714.285714286</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>2785714.285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NV-35</t>
+          <t>NV-33</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lâm Thị Hường</t>
+          <t xml:space="preserve">Pen Design </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3214285.714285715</v>
       </c>
       <c r="D5" t="n">
         <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NV-39</t>
+          <t>NV-35</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+          <t>Lâm Thị Hường</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -5296,12 +5775,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NV-42</t>
+          <t>NV-39</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cô Na giúp việc</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -5317,117 +5796,117 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NV-5</t>
+          <t>NV-42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Cô Na giúp việc</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5248571.428571429</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>-0</v>
       </c>
       <c r="E8" t="n">
-        <v>5248571.428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11695238.0952381</v>
+        <v>5248571.428571429</v>
       </c>
       <c r="D9" t="n">
         <v>-0</v>
       </c>
       <c r="E9" t="n">
-        <v>11695238.0952381</v>
+        <v>5248571.428571429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6853571.428571429</v>
+        <v>13621428.57142857</v>
       </c>
       <c r="D10" t="n">
         <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>6853571.428571429</v>
+        <v>13621428.57142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13928571.42857143</v>
+        <v>7175000</v>
       </c>
       <c r="D11" t="n">
         <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>13928571.42857143</v>
+        <v>7175000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-22</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>16071428.57142857</v>
       </c>
       <c r="D12" t="n">
         <v>-0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>16071428.57142857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -5443,33 +5922,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="D14" t="n">
         <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -5485,12 +5964,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -5506,123 +5985,144 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-10</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17943571.42857143</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>10000000</v>
+        <v>-0</v>
       </c>
       <c r="E17" t="n">
-        <v>7943571.428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6438571.428571428</v>
+        <v>18330000</v>
       </c>
       <c r="D18" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="E18" t="n">
-        <v>5438571.428571428</v>
+        <v>8330000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4596428.571428572</v>
+        <v>6438571.428571428</v>
       </c>
       <c r="D19" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="E19" t="n">
-        <v>-403571.4285714282</v>
+        <v>4438571.428571428</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4871428.571428572</v>
+        <v>4774285.714285715</v>
       </c>
       <c r="D20" t="n">
-        <v>-0</v>
+        <v>5000000</v>
       </c>
       <c r="E20" t="n">
-        <v>4871428.571428572</v>
+        <v>-225714.2857142854</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NV-38</t>
+          <t>NV-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lê Thị Ngọc Mi</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3340357.142857143</v>
+        <v>5050000</v>
       </c>
       <c r="D21" t="n">
         <v>-0</v>
       </c>
       <c r="E21" t="n">
-        <v>3340357.142857143</v>
+        <v>5050000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>NV-38</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3340357.142857143</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3340357.142857143</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>77702023.80952382</v>
-      </c>
-      <c r="D22" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>61702023.80952382</v>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>87187500.00000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70187500</v>
       </c>
     </row>
   </sheetData>
@@ -5731,19 +6231,19 @@
         <v>189200000</v>
       </c>
       <c r="H2" t="n">
-        <v>67695000</v>
+        <v>78278000</v>
       </c>
       <c r="I2" t="n">
-        <v>77702023.80952382</v>
+        <v>70187500</v>
       </c>
       <c r="J2" t="n">
-        <v>145397023.8095238</v>
+        <v>148465500</v>
       </c>
       <c r="K2" t="n">
-        <v>43802976.19047618</v>
+        <v>40734500</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2315167874760898</v>
+        <v>0.2152986257928118</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,16 +529,6 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -619,12 +609,6 @@
       <c r="T2" t="n">
         <v/>
       </c>
-      <c r="U2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -705,12 +689,6 @@
       <c r="T3" t="n">
         <v/>
       </c>
-      <c r="U3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -793,12 +771,6 @@
       <c r="T4" t="n">
         <v/>
       </c>
-      <c r="U4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -879,12 +851,6 @@
       <c r="T5" t="n">
         <v/>
       </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -965,12 +931,6 @@
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1051,12 +1011,6 @@
       <c r="T7" t="n">
         <v/>
       </c>
-      <c r="U7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1137,12 +1091,6 @@
       <c r="T8" t="n">
         <v/>
       </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1219,12 +1167,6 @@
       <c r="T9" t="n">
         <v/>
       </c>
-      <c r="U9" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V9" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1305,12 +1247,6 @@
       <c r="T10" t="n">
         <v/>
       </c>
-      <c r="U10" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1393,12 +1329,6 @@
           <t>Trần Khánh Hiệp</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V11" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1479,12 +1409,6 @@
       <c r="T12" t="n">
         <v/>
       </c>
-      <c r="U12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1563,12 +1487,6 @@
       <c r="T13" t="n">
         <v/>
       </c>
-      <c r="U13" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1645,12 +1563,6 @@
       <c r="T14" t="n">
         <v/>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1727,12 +1639,6 @@
       <c r="T15" t="n">
         <v/>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1811,12 +1717,6 @@
       <c r="T16" t="n">
         <v/>
       </c>
-      <c r="U16" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1899,12 +1799,6 @@
       <c r="T17" t="n">
         <v/>
       </c>
-      <c r="U17" t="n">
-        <v/>
-      </c>
-      <c r="V17" t="n">
-        <v/>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1981,12 +1875,6 @@
       <c r="T18" t="n">
         <v/>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2067,12 +1955,6 @@
       <c r="T19" t="n">
         <v/>
       </c>
-      <c r="U19" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2149,12 +2031,6 @@
       <c r="T20" t="n">
         <v/>
       </c>
-      <c r="U20" t="n">
-        <v/>
-      </c>
-      <c r="V20" t="n">
-        <v/>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2235,12 +2111,6 @@
       <c r="T21" t="n">
         <v/>
       </c>
-      <c r="U21" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2321,12 +2191,6 @@
       <c r="T22" t="n">
         <v/>
       </c>
-      <c r="U22" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2406,12 +2270,6 @@
       </c>
       <c r="T23" t="n">
         <v/>
-      </c>
-      <c r="U23" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V23" t="n">
-        <v>50000</v>
       </c>
     </row>
     <row r="24">
@@ -2455,12 +2313,6 @@
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="n">
-        <v>950000</v>
-      </c>
-      <c r="V24" t="n">
-        <v>150000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2473,7 +2325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,37 +2391,17 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
+          <t>Dư nợ</t>
         </is>
       </c>
     </row>
@@ -2629,24 +2461,10 @@
         <v>2500000</v>
       </c>
       <c r="M2" t="n">
-        <v/>
+        <v>2500000</v>
       </c>
       <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2702,29 +2520,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+        <v>43000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43000000</v>
       </c>
       <c r="N3" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2783,24 +2585,10 @@
         <v>35000000</v>
       </c>
       <c r="M4" t="n">
-        <v/>
+        <v>26000000</v>
       </c>
       <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26000000</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v/>
+        <v>9000000</v>
       </c>
     </row>
     <row r="5">
@@ -2859,24 +2647,10 @@
         <v>43000000</v>
       </c>
       <c r="M5" t="n">
-        <v/>
+        <v>24000000</v>
       </c>
       <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v/>
+        <v>19000000</v>
       </c>
     </row>
     <row r="6">
@@ -2935,24 +2709,10 @@
         <v>10000000</v>
       </c>
       <c r="M6" t="n">
-        <v/>
+        <v>8500000</v>
       </c>
       <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
     </row>
     <row r="7">
@@ -3011,24 +2771,10 @@
         <v>11000000</v>
       </c>
       <c r="M7" t="n">
-        <v/>
+        <v>11000000</v>
       </c>
       <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3052,20 +2798,14 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>136500000</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>144500000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>115000000</v>
+      </c>
       <c r="N8" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>86000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>115000000</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+        <v>29500000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/SÓC TRĂNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2273,46 +2273,124 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>707</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>dương ngọc hân</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="J24" t="n">
+        <v/>
+      </c>
+      <c r="K24" t="n">
+        <v/>
+      </c>
+      <c r="L24" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v/>
+      </c>
+      <c r="O24" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v/>
+      </c>
+      <c r="T24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>22</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
-        <v>196700000</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>198000000</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
         <v>7500000</v>
       </c>
-      <c r="L24" t="n">
-        <v>204200000</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>172200000</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="L25" t="n">
+        <v>205500000</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>173500000</v>
+      </c>
+      <c r="P25" t="n">
         <v>4000000</v>
       </c>
-      <c r="Q24" t="n">
-        <v>176200000</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="Q25" t="n">
+        <v>177500000</v>
+      </c>
+      <c r="R25" t="n">
         <v>28000000</v>
       </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2818,7 +2896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4172,19 +4250,81 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>884</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>885</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>42</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>78278000</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>80308000</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4197,7 +4337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4372,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4000000</v>
+        <v>5300000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4464,14 +4604,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Thị Ngọc Mi</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69000000</v>
+        <v>1300000</v>
       </c>
       <c r="C8" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4498,17 +4638,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>69000000</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="D9" t="n">
-        <v>38200000</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -4532,7 +4672,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4542,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33000000</v>
+        <v>38200000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -4566,17 +4706,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76000000</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>33000000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -4594,17 +4734,17 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6700000</v>
+        <v>76000000</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -4628,17 +4768,17 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6700000</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -4650,16 +4790,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -4668,34 +4808,68 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>192700000</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>157200000</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>700000</v>
+        <v>100000</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>50000</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>194000000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>158500000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>700000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J15" t="n">
         <v>17000000</v>
       </c>
     </row>
@@ -4757,7 +4931,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4080000</v>
+        <v>4110000</v>
       </c>
     </row>
     <row r="5">
@@ -4807,7 +4981,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="10">
@@ -4827,7 +5001,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78278000</v>
+        <v>80308000</v>
       </c>
     </row>
   </sheetData>
@@ -4841,7 +5015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5339,26 +5513,51 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2030000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-730000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>204200000</v>
-      </c>
-      <c r="C20" t="n">
-        <v>172200000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>22</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="B21" t="n">
+        <v>205500000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>173500000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23</v>
+      </c>
+      <c r="E21" t="n">
         <v>17000000</v>
       </c>
-      <c r="F20" t="n">
-        <v>78278000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>110922000</v>
+      <c r="F21" t="n">
+        <v>80308000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>110192000</v>
       </c>
     </row>
   </sheetData>
@@ -5372,7 +5571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5440,13 +5639,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3683571.428571429</v>
+        <v>3790714.285714286</v>
       </c>
       <c r="D3" t="n">
         <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>3683571.428571429</v>
+        <v>3790714.285714286</v>
       </c>
     </row>
     <row r="4">
@@ -5482,13 +5681,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3214285.714285715</v>
+        <v>3321428.571428572</v>
       </c>
       <c r="D5" t="n">
         <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>3214285.714285715</v>
+        <v>3321428.571428572</v>
       </c>
     </row>
     <row r="6">
@@ -5557,159 +5756,159 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-5</t>
+          <t>NV-48</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Nguyễn hữu quang</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5248571.428571429</v>
+        <v>3333333.333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>2000000</v>
       </c>
       <c r="E9" t="n">
-        <v>5248571.428571429</v>
+        <v>1333333.333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13621428.57142857</v>
+        <v>5248571.428571429</v>
       </c>
       <c r="D10" t="n">
         <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>13621428.57142857</v>
+        <v>5248571.428571429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7175000</v>
+        <v>13740476.19047619</v>
       </c>
       <c r="D11" t="n">
         <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>7175000</v>
+        <v>13740476.19047619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16071428.57142857</v>
+        <v>7282142.857142856</v>
       </c>
       <c r="D12" t="n">
         <v>-0</v>
       </c>
       <c r="E12" t="n">
-        <v>16071428.57142857</v>
+        <v>7282142.857142856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-22</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>16607142.85714286</v>
       </c>
       <c r="D13" t="n">
         <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16607142.85714286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>240000</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>240000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="D15" t="n">
         <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -5725,12 +5924,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -5746,123 +5945,144 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-10</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18330000</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>10000000</v>
+        <v>-0</v>
       </c>
       <c r="E18" t="n">
-        <v>8330000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6438571.428571428</v>
+        <v>19042857.14285714</v>
       </c>
       <c r="D19" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="E19" t="n">
-        <v>4438571.428571428</v>
+        <v>9042857.142857142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4774285.714285715</v>
+        <v>6800000</v>
       </c>
       <c r="D20" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="E20" t="n">
-        <v>-225714.2857142854</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5050000</v>
+        <v>5130000</v>
       </c>
       <c r="D21" t="n">
-        <v>-0</v>
+        <v>5000000</v>
       </c>
       <c r="E21" t="n">
-        <v>5050000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NV-38</t>
+          <t>NV-27</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lê Thị Ngọc Mi</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3340357.142857143</v>
+        <v>5050000</v>
       </c>
       <c r="D22" t="n">
         <v>-0</v>
       </c>
       <c r="E22" t="n">
-        <v>3340357.142857143</v>
+        <v>5050000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>NV-38</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3754642.857142857</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3754642.857142857</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>87187500.00000001</v>
-      </c>
-      <c r="D23" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="E23" t="n">
-        <v>70187500</v>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>93341309.52380952</v>
+      </c>
+      <c r="D24" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>74341309.52380952</v>
       </c>
     </row>
   </sheetData>
@@ -5953,37 +6173,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204200000</v>
+        <v>205500000</v>
       </c>
       <c r="C2" t="n">
-        <v>176200000</v>
+        <v>177500000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8628795298726738</v>
+        <v>0.8637469586374696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1371204701273262</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="F2" t="n">
         <v>13000000</v>
       </c>
       <c r="G2" t="n">
-        <v>189200000</v>
+        <v>190500000</v>
       </c>
       <c r="H2" t="n">
-        <v>78278000</v>
+        <v>80308000</v>
       </c>
       <c r="I2" t="n">
-        <v>70187500</v>
+        <v>74341309.52380952</v>
       </c>
       <c r="J2" t="n">
-        <v>148465500</v>
+        <v>154649309.5238095</v>
       </c>
       <c r="K2" t="n">
-        <v>40734500</v>
+        <v>35850690.47619048</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2152986257928118</v>
+        <v>0.1881926009248844</v>
       </c>
     </row>
   </sheetData>
